--- a/HRMS/MstStudentPromotion.xlsx
+++ b/HRMS/MstStudentPromotion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Table Name -MstStudentPromotion</t>
   </si>
@@ -131,13 +131,61 @@
   </si>
   <si>
     <t>TransferDate</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take SamagraId as String.</t>
+  </si>
+  <si>
+    <t>Take AcademicYear as String.</t>
+  </si>
+  <si>
+    <t>Take SchoolUDISECode as String.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Take OldStudentPromotionId as Int.</t>
+  </si>
+  <si>
+    <t>For IsTransfer Check.</t>
+  </si>
+  <si>
+    <t>Take CurrentPercentage  as Decimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ClassId  (MstClasses) in Numaric </t>
+  </si>
+  <si>
+    <t>Take StreamId as Int.</t>
+  </si>
+  <si>
+    <t>For CurrentStatus Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get StudentId  (RegStudent) in Numaric </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +200,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -188,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +265,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +588,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,13 +656,15 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -604,7 +673,9 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,7 +691,9 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,7 +710,9 @@
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -653,13 +728,15 @@
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -669,7 +746,9 @@
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -685,7 +764,9 @@
         <v>16</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -701,7 +782,9 @@
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -717,7 +800,9 @@
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -733,7 +818,9 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -749,7 +836,9 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -765,7 +854,9 @@
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -781,7 +872,9 @@
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -797,7 +890,9 @@
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -813,7 +908,9 @@
         <v>16</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -829,7 +926,9 @@
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -845,7 +944,9 @@
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">

--- a/HRMS/MstStudentPromotion.xlsx
+++ b/HRMS/MstStudentPromotion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Table Name -MstStudentPromotion</t>
   </si>
@@ -179,13 +179,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get StudentId  (RegStudent) in Numaric </t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +208,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,12 +270,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -272,6 +277,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +593,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A22" sqref="A22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,32 +607,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -656,7 +670,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -664,7 +678,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -673,7 +687,7 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="5"/>
@@ -691,7 +705,7 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="5"/>
@@ -710,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -728,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -736,7 +750,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -746,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -764,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -782,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -800,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -818,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -836,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -854,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -872,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -890,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -908,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -926,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -944,19 +958,19 @@
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1759,9 +1773,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/MstStudentPromotion.xlsx
+++ b/HRMS/MstStudentPromotion.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -MstStudentPromotion</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में छात्र पदोन्नति का विवरण है</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -636,22 +636,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,16 +679,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -697,16 +697,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -715,17 +715,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -733,17 +733,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -751,17 +751,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,17 +769,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,17 +787,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,17 +805,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,17 +823,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,17 +841,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -859,17 +859,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,17 +877,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,17 +895,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,17 +913,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,17 +931,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,22 +949,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
